--- a/templates/QARSF/TempRMA.xlsx
+++ b/templates/QARSF/TempRMA.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{4D3D4C38-C7DA-4F82-92AB-EEA966A4E67D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F637EEC4-6A0A-47E9-95DF-B684A2317752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="7" firstSheet="1" tabRatio="761" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="761" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="AddHeader" r:id="rId1" sheetId="1"/>
-    <sheet name="AddLine" r:id="rId2" sheetId="2"/>
-    <sheet name="FirmAllLines" r:id="rId3" sheetId="3"/>
-    <sheet name="Allocate" r:id="rId4" sheetId="5"/>
-    <sheet name="PickPackShip" r:id="rId5" sheetId="13"/>
-    <sheet name="CreateInvoice" r:id="rId6" sheetId="18"/>
-    <sheet name="RMA Header" r:id="rId7" sheetId="19"/>
-    <sheet name="RMA Details Maintenance Grid" r:id="rId8" sheetId="20"/>
+    <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
+    <sheet name="AddLine" sheetId="2" r:id="rId2"/>
+    <sheet name="FirmAllLines" sheetId="3" r:id="rId3"/>
+    <sheet name="Allocate" sheetId="5" r:id="rId4"/>
+    <sheet name="PickPackShip" sheetId="13" r:id="rId5"/>
+    <sheet name="CreateInvoice" sheetId="18" r:id="rId6"/>
+    <sheet name="RMA Header" sheetId="19" r:id="rId7"/>
+    <sheet name="RMA Details Maintenance Grid" sheetId="20" r:id="rId8"/>
+    <sheet name="Receipt" sheetId="21" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
   <si>
     <t>API Mode</t>
   </si>
@@ -190,68 +191,71 @@
     <t>Id</t>
   </si>
   <si>
-    <t>RMA-CJEX-001</t>
-  </si>
-  <si>
-    <t>RMA-CJEX-002</t>
-  </si>
-  <si>
-    <t>RMA-CJEX-003</t>
-  </si>
-  <si>
-    <t>a6h1K000000PrnOQAS</t>
-  </si>
-  <si>
-    <t>RMA-CJEX-1-1</t>
-  </si>
-  <si>
-    <t>a6h1K000000PrnPQAS</t>
-  </si>
-  <si>
-    <t>RMA-CJEX-1-2</t>
-  </si>
-  <si>
-    <t>a6h1K000000PrnQQAS</t>
-  </si>
-  <si>
-    <t>RMA-CJEX-1-3</t>
-  </si>
-  <si>
-    <t>RMA-VS7X-001</t>
-  </si>
-  <si>
-    <t>RMA-VS7X-002</t>
-  </si>
-  <si>
-    <t>RMA-VS7X-003</t>
-  </si>
-  <si>
-    <t>a6h1K000000PrnTQAS</t>
-  </si>
-  <si>
-    <t>RMA-VS7X-1-1</t>
-  </si>
-  <si>
-    <t>a6h1K000000PrnUQAS</t>
-  </si>
-  <si>
-    <t>RMA-VS7X-1-2</t>
-  </si>
-  <si>
-    <t>a6h1K000000PrnVQAS</t>
-  </si>
-  <si>
-    <t>RMA-VS7X-1-3</t>
+    <t>Qty to Process</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Location ID</t>
+  </si>
+  <si>
+    <t>Location Number</t>
+  </si>
+  <si>
+    <t>Lot Number</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>LT-1</t>
+  </si>
+  <si>
+    <t>Txn Comments</t>
+  </si>
+  <si>
+    <t>Location Comments</t>
+  </si>
+  <si>
+    <t>Test comments</t>
+  </si>
+  <si>
+    <t>Loc Comm</t>
+  </si>
+  <si>
+    <t>RMA-UTSM-001</t>
+  </si>
+  <si>
+    <t>RMA-UTSM-002</t>
+  </si>
+  <si>
+    <t>RMA-UTSM-003</t>
+  </si>
+  <si>
+    <t>a6h1K000000PtejQAC</t>
+  </si>
+  <si>
+    <t>RMA-UTSM-1-1</t>
+  </si>
+  <si>
+    <t>a6h1K000000PtekQAC</t>
+  </si>
+  <si>
+    <t>RMA-UTSM-1-2</t>
+  </si>
+  <si>
+    <t>a6h1K000000PtelQAC</t>
+  </si>
+  <si>
+    <t>RMA-UTSM-1-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-  </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,78 +295,6 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -372,7 +304,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -380,53 +312,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="11" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="12" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="14" numFmtId="164" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="15" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -443,10 +345,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -481,7 +383,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -516,7 +418,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -610,21 +512,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -641,7 +543,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -693,14 +595,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -709,11 +611,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="3" max="5" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="5" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -763,34 +665,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E477E4AB-7195-46E9-AE4C-74460C3E66C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E477E4AB-7195-46E9-AE4C-74460C3E66C8}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="3" max="4" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
+    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -970,13 +872,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A014ED-6B4B-4C73-85E3-BCAF80680504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A014ED-6B4B-4C73-85E3-BCAF80680504}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -985,8 +887,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="23.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1007,13 +909,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA382408-0CA4-42C9-9A0F-02454DC598A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA382408-0CA4-42C9-9A0F-02454DC598A0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1022,9 +924,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1050,13 +952,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3AAA29-D8B0-49CC-98B1-95E06AACF704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3AAA29-D8B0-49CC-98B1-95E06AACF704}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1065,8 +967,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1092,12 +994,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448C880-E0DE-4186-968F-5BE216A9193B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448C880-E0DE-4186-968F-5BE216A9193B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1106,7 +1008,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="26.44140625" collapsed="true"/>
+    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1132,26 +1034,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13325BA6-9C04-4130-8136-6740FB6A7420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13325BA6-9C04-4130-8136-6740FB6A7420}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="47.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="47.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1195,32 +1097,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A54AD0C-5EA5-4783-8E38-9D6B7A6930F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A54AD0C-5EA5-4783-8E38-9D6B7A6930F3}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="6.48046875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0859375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.59375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.15234375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="9.9453125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.56640625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.54296875" collapsed="true"/>
-    <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="12" width="21.21875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1269,10 +1170,10 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>46</v>
@@ -1281,7 +1182,7 @@
         <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1298,10 +1199,10 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>46</v>
@@ -1310,7 +1211,7 @@
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1327,10 +1228,10 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>46</v>
@@ -1339,11 +1240,108 @@
         <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF44336-DD89-439C-974E-A6A81E5CAD6F}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.21875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/templates/QARSF/TempRMA.xlsx
+++ b/templates/QARSF/TempRMA.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QARSF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F637EEC4-6A0A-47E9-95DF-B684A2317752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{4D3D4C38-C7DA-4F82-92AB-EEA966A4E67D}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="761" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="7" firstSheet="1" tabRatio="761" windowHeight="12456" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="AddHeader" sheetId="1" r:id="rId1"/>
-    <sheet name="AddLine" sheetId="2" r:id="rId2"/>
-    <sheet name="FirmAllLines" sheetId="3" r:id="rId3"/>
-    <sheet name="Allocate" sheetId="5" r:id="rId4"/>
-    <sheet name="PickPackShip" sheetId="13" r:id="rId5"/>
-    <sheet name="CreateInvoice" sheetId="18" r:id="rId6"/>
-    <sheet name="RMA Header" sheetId="19" r:id="rId7"/>
-    <sheet name="RMA Details Maintenance Grid" sheetId="20" r:id="rId8"/>
-    <sheet name="Receipt" sheetId="21" r:id="rId9"/>
+    <sheet name="AddHeader" r:id="rId1" sheetId="1"/>
+    <sheet name="AddLine" r:id="rId2" sheetId="2"/>
+    <sheet name="FirmAllLines" r:id="rId3" sheetId="3"/>
+    <sheet name="Allocate" r:id="rId4" sheetId="5"/>
+    <sheet name="PickPackShip" r:id="rId5" sheetId="13"/>
+    <sheet name="CreateInvoice" r:id="rId6" sheetId="18"/>
+    <sheet name="RMA Header" r:id="rId7" sheetId="19"/>
+    <sheet name="RMA Details Maintenance Grid" r:id="rId8" sheetId="20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>API Mode</t>
   </si>
@@ -191,71 +190,68 @@
     <t>Id</t>
   </si>
   <si>
-    <t>Qty to Process</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
-    <t>Location ID</t>
-  </si>
-  <si>
-    <t>Location Number</t>
-  </si>
-  <si>
-    <t>Lot Number</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>LT-1</t>
-  </si>
-  <si>
-    <t>Txn Comments</t>
-  </si>
-  <si>
-    <t>Location Comments</t>
-  </si>
-  <si>
-    <t>Test comments</t>
-  </si>
-  <si>
-    <t>Loc Comm</t>
-  </si>
-  <si>
-    <t>RMA-UTSM-001</t>
-  </si>
-  <si>
-    <t>RMA-UTSM-002</t>
-  </si>
-  <si>
-    <t>RMA-UTSM-003</t>
-  </si>
-  <si>
-    <t>a6h1K000000PtejQAC</t>
-  </si>
-  <si>
-    <t>RMA-UTSM-1-1</t>
-  </si>
-  <si>
-    <t>a6h1K000000PtekQAC</t>
-  </si>
-  <si>
-    <t>RMA-UTSM-1-2</t>
-  </si>
-  <si>
-    <t>a6h1K000000PtelQAC</t>
-  </si>
-  <si>
-    <t>RMA-UTSM-1-3</t>
+    <t>RMA-CJEX-001</t>
+  </si>
+  <si>
+    <t>RMA-CJEX-002</t>
+  </si>
+  <si>
+    <t>RMA-CJEX-003</t>
+  </si>
+  <si>
+    <t>a6h1K000000PrnOQAS</t>
+  </si>
+  <si>
+    <t>RMA-CJEX-1-1</t>
+  </si>
+  <si>
+    <t>a6h1K000000PrnPQAS</t>
+  </si>
+  <si>
+    <t>RMA-CJEX-1-2</t>
+  </si>
+  <si>
+    <t>a6h1K000000PrnQQAS</t>
+  </si>
+  <si>
+    <t>RMA-CJEX-1-3</t>
+  </si>
+  <si>
+    <t>RMA-VS7X-001</t>
+  </si>
+  <si>
+    <t>RMA-VS7X-002</t>
+  </si>
+  <si>
+    <t>RMA-VS7X-003</t>
+  </si>
+  <si>
+    <t>a6h1K000000PrnTQAS</t>
+  </si>
+  <si>
+    <t>RMA-VS7X-1-1</t>
+  </si>
+  <si>
+    <t>a6h1K000000PrnUQAS</t>
+  </si>
+  <si>
+    <t>RMA-VS7X-1-2</t>
+  </si>
+  <si>
+    <t>a6h1K000000PrnVQAS</t>
+  </si>
+  <si>
+    <t>RMA-VS7X-1-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +290,78 @@
       <color rgb="FF202124"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -304,7 +372,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -312,23 +380,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="18">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="9" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="10" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="11" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="12" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="13" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="14" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="15" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="6" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -345,10 +443,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -383,7 +481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -418,7 +516,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -512,21 +610,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -543,7 +641,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -595,14 +693,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -611,11 +709,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="5" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.21875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="3" max="5" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -665,34 +763,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E477E4AB-7195-46E9-AE4C-74460C3E66C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E477E4AB-7195-46E9-AE4C-74460C3E66C8}">
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="8.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="3" max="4" bestFit="true" customWidth="true" width="16.6640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.77734375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.77734375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="7.6640625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.5546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="11.6640625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="13.109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="14.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -872,13 +970,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A014ED-6B4B-4C73-85E3-BCAF80680504}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3A014ED-6B4B-4C73-85E3-BCAF80680504}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -887,8 +985,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -909,13 +1007,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA382408-0CA4-42C9-9A0F-02454DC598A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA382408-0CA4-42C9-9A0F-02454DC598A0}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -924,9 +1022,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -952,13 +1050,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3AAA29-D8B0-49CC-98B1-95E06AACF704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE3AAA29-D8B0-49CC-98B1-95E06AACF704}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -967,8 +1065,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.88671875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.5546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -994,12 +1092,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448C880-E0DE-4186-968F-5BE216A9193B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2448C880-E0DE-4186-968F-5BE216A9193B}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1008,7 +1106,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="26.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1034,26 +1132,26 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13325BA6-9C04-4130-8136-6740FB6A7420}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13325BA6-9C04-4130-8136-6740FB6A7420}">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="47.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="47.109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1097,31 +1195,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A54AD0C-5EA5-4783-8E38-9D6B7A6930F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A54AD0C-5EA5-4783-8E38-9D6B7A6930F3}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="8.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="12" width="21.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.48046875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0859375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.59375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.15234375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.9453125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="8.56640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="11.5546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.54296875" collapsed="true"/>
+    <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -1170,10 +1269,10 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>46</v>
@@ -1182,7 +1281,7 @@
         <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1199,10 +1298,10 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>46</v>
@@ -1211,7 +1310,7 @@
         <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1228,10 +1327,10 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>46</v>
@@ -1240,108 +1339,11 @@
         <v>47</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF44336-DD89-439C-974E-A6A81E5CAD6F}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.21875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.21875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>